--- a/2025_12-18_Linearization.xlsx
+++ b/2025_12-18_Linearization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidFulford\Dropbox\SPEE\REP-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A2E990-63F2-41F6-B0FC-0DAC5188E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6603A0-0A66-4E45-8829-177E819CC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5AC488F8-9BC3-4790-B2DB-80233DD882CC}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -564,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -641,44 +641,39 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,10 +696,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2174,7 +2169,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                  <a:t> / ln(q)</a:t>
+                  <a:t> or ln(q)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1200" baseline="30000"/>
               </a:p>
@@ -3127,7 +3122,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                  <a:t> / ln(q)</a:t>
+                  <a:t> or ln(q)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5359,14 +5354,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="41" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
     <col min="23" max="24" width="14.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="10"/>
     <col min="26" max="26" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -5383,28 +5380,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Z1" s="6"/>
@@ -5419,7 +5415,7 @@
       <c r="AK1" s="7"/>
     </row>
     <row r="2" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5439,8 +5435,7 @@
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="37"/>
+      <c r="U2" s="43"/>
       <c r="W2" s="11" t="s">
         <v>32</v>
       </c>
@@ -5464,7 +5459,7 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -5484,8 +5479,8 @@
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="38"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="37"/>
       <c r="W3" s="25" t="s">
         <v>8</v>
       </c>
@@ -5527,7 +5522,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
@@ -5551,8 +5546,7 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="39"/>
+      <c r="U4" s="45"/>
       <c r="W4" s="19" t="s">
         <v>17</v>
       </c>
@@ -5607,7 +5601,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
@@ -5633,8 +5627,7 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="39"/>
+      <c r="U5" s="45"/>
       <c r="W5" s="4">
         <f>C4</f>
         <v>45658</v>
@@ -5688,7 +5681,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
@@ -5714,8 +5707,8 @@
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="40"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="38"/>
       <c r="W6" s="4">
         <f>EOMONTH(W5, 0) + 1</f>
         <v>45689</v>
@@ -5768,7 +5761,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="33" t="s">
         <v>0</v>
       </c>
@@ -5794,8 +5787,7 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="39"/>
+      <c r="U7" s="45"/>
       <c r="W7" s="4">
         <f t="shared" ref="W7:W64" si="10">EOMONTH(W6, 0) + 1</f>
         <v>45717</v>
@@ -5848,7 +5840,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -5875,8 +5867,7 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="39"/>
+      <c r="U8" s="45"/>
       <c r="W8" s="4">
         <f t="shared" si="10"/>
         <v>45748</v>
@@ -5929,7 +5920,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5949,8 +5940,7 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="39"/>
+      <c r="U9" s="45"/>
       <c r="W9" s="4">
         <f t="shared" si="10"/>
         <v>45778</v>
@@ -6003,7 +5993,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="27"/>
       <c r="C10" s="29" t="s">
         <v>18</v>
@@ -6025,8 +6015,7 @@
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="39"/>
+      <c r="U10" s="45"/>
       <c r="W10" s="4">
         <f t="shared" si="10"/>
         <v>45809</v>
@@ -6079,12 +6068,12 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="27"/>
       <c r="C11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="52">
         <f>_qi^-_b</f>
         <v>4.8896638427146453E-3</v>
       </c>
@@ -6104,8 +6093,7 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="39"/>
+      <c r="U11" s="45"/>
       <c r="W11" s="4">
         <f t="shared" si="10"/>
         <v>45839</v>
@@ -6158,12 +6146,12 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="27"/>
       <c r="C12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="52">
         <f>_Dnom*_b*D11</f>
         <v>2.7914516081172538E-5</v>
       </c>
@@ -6183,8 +6171,7 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="39"/>
+      <c r="U12" s="45"/>
       <c r="W12" s="4">
         <f t="shared" si="10"/>
         <v>45870</v>
@@ -6237,7 +6224,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -6257,8 +6244,7 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="39"/>
+      <c r="U13" s="45"/>
       <c r="W13" s="4">
         <f t="shared" si="10"/>
         <v>45901</v>
@@ -6311,7 +6297,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="27"/>
       <c r="C14" s="29" t="s">
         <v>21</v>
@@ -6333,8 +6319,7 @@
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="45"/>
       <c r="W14" s="4">
         <f t="shared" si="10"/>
         <v>45931</v>
@@ -6387,12 +6372,12 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="27"/>
       <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="51">
         <f>IF(_b=1,
   LN(_qi)*-D16,
   _qi^(1-_b)*-D16
@@ -6415,8 +6400,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="39"/>
+      <c r="U15" s="45"/>
       <c r="W15" s="4">
         <f t="shared" si="10"/>
         <v>45962</v>
@@ -6469,12 +6453,12 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="27"/>
       <c r="C16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="51">
         <f>IF(_b=1,
   -1/(_Dnom/_qi),
   -1/((1-_b)*_Dnom*_qi^-_b)
@@ -6497,8 +6481,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="39"/>
+      <c r="U16" s="45"/>
       <c r="W16" s="4">
         <f t="shared" si="10"/>
         <v>45992</v>
@@ -6551,7 +6534,7 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -6571,8 +6554,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="39"/>
+      <c r="U17" s="45"/>
       <c r="W17" s="4">
         <f t="shared" si="10"/>
         <v>46023</v>
@@ -6625,7 +6607,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -6645,8 +6627,7 @@
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="39"/>
+      <c r="U18" s="45"/>
       <c r="W18" s="4">
         <f t="shared" si="10"/>
         <v>46054</v>
@@ -6699,7 +6680,7 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
@@ -6721,8 +6702,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="39"/>
+      <c r="U19" s="45"/>
       <c r="W19" s="4">
         <f t="shared" si="10"/>
         <v>46082</v>
@@ -6775,7 +6755,7 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="30" t="s">
         <v>22</v>
       </c>
@@ -6801,8 +6781,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="39"/>
+      <c r="U20" s="45"/>
       <c r="W20" s="4">
         <f t="shared" si="10"/>
         <v>46113</v>
@@ -6855,16 +6834,16 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="31">
         <f>Z6</f>
         <v>59</v>
       </c>
-      <c r="C21" s="54" cm="1">
+      <c r="C21" s="51" cm="1">
         <f t="array" ref="C21:C22">(B21:B22*D12+D11)^(-1/_b)</f>
         <v>1321.0641812514984</v>
       </c>
-      <c r="D21" s="54" cm="1">
+      <c r="D21" s="51" cm="1">
         <f t="array" ref="D21:D22">IF(_b=1, LN(_xlfn.ANCHORARRAY(C21)),_xlfn.ANCHORARRAY( C21)^(1-_b))*D16+D15</f>
         <v>95628.01470849826</v>
       </c>
@@ -6884,8 +6863,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="39"/>
+      <c r="U21" s="45"/>
       <c r="W21" s="4">
         <f t="shared" si="10"/>
         <v>46143</v>
@@ -6938,15 +6916,15 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="31">
         <f>Z7</f>
         <v>90</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="51">
         <v>1106.0875849944046</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="51">
         <v>133081.31713712588</v>
       </c>
       <c r="E22" s="27"/>
@@ -6965,8 +6943,7 @@
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="39"/>
+      <c r="U22" s="45"/>
       <c r="W22" s="4">
         <f t="shared" si="10"/>
         <v>46174</v>
@@ -7019,7 +6996,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -7039,8 +7016,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="39"/>
+      <c r="U23" s="45"/>
       <c r="W23" s="4">
         <f t="shared" si="10"/>
         <v>46204</v>
@@ -7093,12 +7069,12 @@
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="54">
+      <c r="D24" s="51">
         <f>D22-D21</f>
         <v>37453.30242862762</v>
       </c>
@@ -7118,8 +7094,7 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="39"/>
+      <c r="U24" s="45"/>
       <c r="W24" s="4">
         <f t="shared" si="10"/>
         <v>46235</v>
@@ -7172,7 +7147,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -7192,8 +7167,7 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="39"/>
+      <c r="U25" s="45"/>
       <c r="W25" s="4">
         <f t="shared" si="10"/>
         <v>46266</v>
@@ -7246,7 +7220,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="29" t="s">
         <v>33</v>
       </c>
@@ -7254,7 +7228,7 @@
         <f>AC64</f>
         <v>61.636557225653966</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="51">
         <f>IF(_b=1, LN(C26), C26^(1-_b))*D16+D15</f>
         <v>529634.70794916491</v>
       </c>
@@ -7274,8 +7248,7 @@
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="39"/>
+      <c r="U26" s="45"/>
       <c r="W26" s="4">
         <f t="shared" si="10"/>
         <v>46296</v>
@@ -7328,28 +7301,27 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="39"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="50"/>
       <c r="W27" s="4">
         <f t="shared" si="10"/>
         <v>46327</v>

--- a/2025_12-18_Linearization.xlsx
+++ b/2025_12-18_Linearization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidFulford\Dropbox\SPEE\REP-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6603A0-0A66-4E45-8829-177E819CC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E1849-A0BB-4BCC-A42D-972ABD618D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5AC488F8-9BC3-4790-B2DB-80233DD882CC}"/>
   </bookViews>
@@ -5354,9 +5354,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6071,7 +6069,7 @@
       <c r="A11" s="44"/>
       <c r="B11" s="27"/>
       <c r="C11" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="52">
         <f>_qi^-_b</f>
@@ -6149,7 +6147,7 @@
       <c r="A12" s="44"/>
       <c r="B12" s="27"/>
       <c r="C12" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="52">
         <f>_Dnom*_b*D11</f>
@@ -6375,7 +6373,7 @@
       <c r="A15" s="44"/>
       <c r="B15" s="27"/>
       <c r="C15" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="51">
         <f>IF(_b=1,
@@ -6456,7 +6454,7 @@
       <c r="A16" s="44"/>
       <c r="B16" s="27"/>
       <c r="C16" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="51">
         <f>IF(_b=1,
